--- a/Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8335B5F-00A9-4A5F-9F18-A302B6842647}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IX" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,150 +689,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5356700</v>
+        <v>4828600</v>
       </c>
       <c r="E8" s="3">
-        <v>5924200</v>
+        <v>5949200</v>
       </c>
       <c r="F8" s="3">
-        <v>6005800</v>
+        <v>5459400</v>
       </c>
       <c r="G8" s="3">
-        <v>6435200</v>
+        <v>6037700</v>
       </c>
       <c r="H8" s="3">
-        <v>7027700</v>
+        <v>6120900</v>
       </c>
       <c r="I8" s="3">
+        <v>6558500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7162400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6678100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6250200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3554500</v>
+        <v>2977400</v>
       </c>
       <c r="E9" s="3">
-        <v>4247900</v>
+        <v>3845600</v>
       </c>
       <c r="F9" s="3">
-        <v>4262600</v>
+        <v>3440500</v>
       </c>
       <c r="G9" s="3">
-        <v>4638300</v>
+        <v>4148400</v>
       </c>
       <c r="H9" s="3">
-        <v>5216700</v>
+        <v>4173600</v>
       </c>
       <c r="I9" s="3">
+        <v>4727200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5316600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4878500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4517300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1802300</v>
+        <v>1851200</v>
       </c>
       <c r="E10" s="3">
-        <v>1676300</v>
+        <v>2103600</v>
       </c>
       <c r="F10" s="3">
-        <v>1743100</v>
+        <v>2018900</v>
       </c>
       <c r="G10" s="3">
-        <v>1796900</v>
+        <v>1889300</v>
       </c>
       <c r="H10" s="3">
-        <v>1811000</v>
+        <v>1947200</v>
       </c>
       <c r="I10" s="3">
+        <v>1831300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1845700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1799600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1732900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +868,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +899,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,66 +934,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>22100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>13800</v>
-      </c>
       <c r="G14" s="3">
-        <v>3400</v>
+        <v>22600</v>
       </c>
       <c r="H14" s="3">
-        <v>9600</v>
+        <v>14100</v>
       </c>
       <c r="I14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K14" s="3">
         <v>38400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>30100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9600</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>11900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10800</v>
-      </c>
       <c r="I15" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K15" s="3">
         <v>13300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>11900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +1020,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4540700</v>
+        <v>4258300</v>
       </c>
       <c r="E17" s="3">
-        <v>5366100</v>
+        <v>5017200</v>
       </c>
       <c r="F17" s="3">
-        <v>5258400</v>
+        <v>4627800</v>
       </c>
       <c r="G17" s="3">
-        <v>5574400</v>
+        <v>5469000</v>
       </c>
       <c r="H17" s="3">
-        <v>6211800</v>
+        <v>5359200</v>
       </c>
       <c r="I17" s="3">
+        <v>5681200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6330900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5953800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5529800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>816000</v>
+        <v>570300</v>
       </c>
       <c r="E18" s="3">
-        <v>558000</v>
+        <v>932000</v>
       </c>
       <c r="F18" s="3">
-        <v>747300</v>
+        <v>831600</v>
       </c>
       <c r="G18" s="3">
-        <v>860800</v>
+        <v>568700</v>
       </c>
       <c r="H18" s="3">
-        <v>815900</v>
+        <v>761700</v>
       </c>
       <c r="I18" s="3">
+        <v>877300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>831500</v>
+      </c>
+      <c r="K18" s="3">
         <v>724300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>720400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,66 +1105,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>168200</v>
+        <v>100600</v>
       </c>
       <c r="E20" s="3">
-        <v>107300</v>
+        <v>62300</v>
       </c>
       <c r="F20" s="3">
-        <v>209500</v>
+        <v>171400</v>
       </c>
       <c r="G20" s="3">
-        <v>177000</v>
+        <v>109400</v>
       </c>
       <c r="H20" s="3">
-        <v>387000</v>
+        <v>213500</v>
       </c>
       <c r="I20" s="3">
+        <v>180400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>394400</v>
+      </c>
+      <c r="K20" s="3">
         <v>81700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>298400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1612200</v>
+        <v>1347200</v>
       </c>
       <c r="E21" s="3">
-        <v>1350300</v>
+        <v>1648700</v>
       </c>
       <c r="F21" s="3">
-        <v>1570200</v>
+        <v>1643100</v>
       </c>
       <c r="G21" s="3">
-        <v>1636800</v>
+        <v>1376200</v>
       </c>
       <c r="H21" s="3">
-        <v>1788500</v>
+        <v>1600300</v>
       </c>
       <c r="I21" s="3">
+        <v>1668200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1822700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1389400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1580800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,66 +1206,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>984200</v>
+        <v>671000</v>
       </c>
       <c r="E23" s="3">
-        <v>665400</v>
+        <v>994300</v>
       </c>
       <c r="F23" s="3">
-        <v>956900</v>
+        <v>1003000</v>
       </c>
       <c r="G23" s="3">
-        <v>1037800</v>
+        <v>678100</v>
       </c>
       <c r="H23" s="3">
-        <v>1202900</v>
+        <v>975200</v>
       </c>
       <c r="I23" s="3">
+        <v>1057700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1225900</v>
+      </c>
+      <c r="K23" s="3">
         <v>806000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1018800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>274300</v>
+        <v>173500</v>
       </c>
       <c r="E24" s="3">
-        <v>132900</v>
+        <v>302000</v>
       </c>
       <c r="F24" s="3">
-        <v>139500</v>
+        <v>279500</v>
       </c>
       <c r="G24" s="3">
-        <v>341900</v>
+        <v>135400</v>
       </c>
       <c r="H24" s="3">
-        <v>396200</v>
+        <v>142100</v>
       </c>
       <c r="I24" s="3">
+        <v>348400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>403800</v>
+      </c>
+      <c r="K24" s="3">
         <v>300000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>336300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,66 +1311,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>709900</v>
+        <v>497500</v>
       </c>
       <c r="E26" s="3">
-        <v>532500</v>
+        <v>692300</v>
       </c>
       <c r="F26" s="3">
-        <v>817400</v>
+        <v>723500</v>
       </c>
       <c r="G26" s="3">
-        <v>695900</v>
+        <v>542700</v>
       </c>
       <c r="H26" s="3">
-        <v>806600</v>
+        <v>833100</v>
       </c>
       <c r="I26" s="3">
+        <v>709300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>822100</v>
+      </c>
+      <c r="K26" s="3">
         <v>506000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>682500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>709100</v>
+        <v>486200</v>
       </c>
       <c r="E27" s="3">
-        <v>503300</v>
+        <v>678900</v>
       </c>
       <c r="F27" s="3">
-        <v>802000</v>
+        <v>722700</v>
       </c>
       <c r="G27" s="3">
-        <v>676400</v>
+        <v>513000</v>
       </c>
       <c r="H27" s="3">
-        <v>795700</v>
+        <v>817400</v>
       </c>
       <c r="I27" s="3">
+        <v>689400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>811000</v>
+      </c>
+      <c r="K27" s="3">
         <v>497800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>665000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,37 +1416,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>247500</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1486,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,66 +1521,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-168200</v>
+        <v>-100600</v>
       </c>
       <c r="E32" s="3">
-        <v>-107300</v>
+        <v>-62300</v>
       </c>
       <c r="F32" s="3">
-        <v>-209500</v>
+        <v>-171400</v>
       </c>
       <c r="G32" s="3">
-        <v>-177000</v>
+        <v>-109400</v>
       </c>
       <c r="H32" s="3">
-        <v>-387000</v>
+        <v>-213500</v>
       </c>
       <c r="I32" s="3">
+        <v>-180400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-394400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-81700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-298400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>709100</v>
+        <v>733700</v>
       </c>
       <c r="E33" s="3">
-        <v>503300</v>
+        <v>678900</v>
       </c>
       <c r="F33" s="3">
-        <v>802000</v>
+        <v>722700</v>
       </c>
       <c r="G33" s="3">
-        <v>676400</v>
+        <v>513000</v>
       </c>
       <c r="H33" s="3">
-        <v>795700</v>
+        <v>817400</v>
       </c>
       <c r="I33" s="3">
+        <v>689400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>811000</v>
+      </c>
+      <c r="K33" s="3">
         <v>497800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>665000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,71 +1626,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>709100</v>
+        <v>733700</v>
       </c>
       <c r="E35" s="3">
-        <v>503300</v>
+        <v>678900</v>
       </c>
       <c r="F35" s="3">
-        <v>802000</v>
+        <v>722700</v>
       </c>
       <c r="G35" s="3">
-        <v>676400</v>
+        <v>513000</v>
       </c>
       <c r="H35" s="3">
-        <v>795700</v>
+        <v>817400</v>
       </c>
       <c r="I35" s="3">
+        <v>689400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>811000</v>
+      </c>
+      <c r="K35" s="3">
         <v>497800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>665000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1720,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,37 +1735,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11769900</v>
+        <v>12070200</v>
       </c>
       <c r="E41" s="3">
-        <v>12463400</v>
+        <v>11343100</v>
       </c>
       <c r="F41" s="3">
-        <v>11739900</v>
+        <v>11995500</v>
       </c>
       <c r="G41" s="3">
-        <v>11302200</v>
+        <v>12702300</v>
       </c>
       <c r="H41" s="3">
-        <v>11511100</v>
+        <v>11964900</v>
       </c>
       <c r="I41" s="3">
+        <v>11518800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>11731700</v>
+      </c>
+      <c r="K41" s="3">
         <v>10051600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9284500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,66 +1801,84 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2201100</v>
+        <v>1848300</v>
       </c>
       <c r="E43" s="3">
-        <v>2129700</v>
+        <v>1985900</v>
       </c>
       <c r="F43" s="3">
-        <v>2238900</v>
+        <v>2243300</v>
       </c>
       <c r="G43" s="3">
-        <v>1936300</v>
+        <v>2170500</v>
       </c>
       <c r="H43" s="3">
-        <v>1815700</v>
+        <v>2281800</v>
       </c>
       <c r="I43" s="3">
+        <v>1973500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1850500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1988700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1868400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1090200</v>
+        <v>1311000</v>
       </c>
       <c r="E44" s="3">
-        <v>984600</v>
+        <v>1187600</v>
       </c>
       <c r="F44" s="3">
-        <v>1223300</v>
+        <v>1111100</v>
       </c>
       <c r="G44" s="3">
-        <v>1152100</v>
+        <v>1003400</v>
       </c>
       <c r="H44" s="3">
-        <v>1095500</v>
+        <v>1246700</v>
       </c>
       <c r="I44" s="3">
+        <v>1174100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1116500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1045400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1265400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1675,8 +1906,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1704,66 +1941,84 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68165000</v>
+        <v>75478000</v>
       </c>
       <c r="E47" s="3">
-        <v>68160600</v>
+        <v>73240900</v>
       </c>
       <c r="F47" s="3">
-        <v>69679400</v>
+        <v>69471500</v>
       </c>
       <c r="G47" s="3">
-        <v>69354800</v>
+        <v>69467000</v>
       </c>
       <c r="H47" s="3">
-        <v>69095800</v>
+        <v>71014900</v>
       </c>
       <c r="I47" s="3">
+        <v>70684000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>70420000</v>
+      </c>
+      <c r="K47" s="3">
         <v>69927900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>70281800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4888700</v>
+        <v>5408500</v>
       </c>
       <c r="E48" s="3">
-        <v>4858500</v>
+        <v>5093700</v>
       </c>
       <c r="F48" s="3">
-        <v>4594500</v>
+        <v>4982400</v>
       </c>
       <c r="G48" s="3">
-        <v>4567500</v>
+        <v>4951600</v>
       </c>
       <c r="H48" s="3">
-        <v>4545300</v>
+        <v>4682600</v>
       </c>
       <c r="I48" s="3">
+        <v>4655100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4632500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4521200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4311900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +2046,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +2081,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,8 +2116,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1878,8 +2151,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,37 +2186,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100868800</v>
+        <v>109581000</v>
       </c>
       <c r="E54" s="3">
-        <v>101348500</v>
+        <v>106478000</v>
       </c>
       <c r="F54" s="3">
-        <v>102465500</v>
+        <v>102802000</v>
       </c>
       <c r="G54" s="3">
-        <v>101348900</v>
+        <v>103290900</v>
       </c>
       <c r="H54" s="3">
-        <v>100390200</v>
+        <v>104429300</v>
       </c>
       <c r="I54" s="3">
+        <v>103291400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>102314200</v>
+      </c>
+      <c r="K54" s="3">
         <v>99626900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>98834300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2240,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,95 +2255,115 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2357800</v>
+        <v>2112500</v>
       </c>
       <c r="E57" s="3">
-        <v>2326600</v>
+        <v>2074400</v>
       </c>
       <c r="F57" s="3">
-        <v>1863000</v>
+        <v>2402900</v>
       </c>
       <c r="G57" s="3">
-        <v>1879600</v>
+        <v>2371200</v>
       </c>
       <c r="H57" s="3">
-        <v>1855900</v>
+        <v>1898700</v>
       </c>
       <c r="I57" s="3">
+        <v>1915700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1891500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2233500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1846800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2112600</v>
+        <v>5864900</v>
       </c>
       <c r="E58" s="3">
-        <v>2720900</v>
+        <v>2933200</v>
       </c>
       <c r="F58" s="3">
-        <v>3180500</v>
+        <v>2153100</v>
       </c>
       <c r="G58" s="3">
-        <v>2977300</v>
+        <v>2773100</v>
       </c>
       <c r="H58" s="3">
-        <v>3334200</v>
+        <v>3241500</v>
       </c>
       <c r="I58" s="3">
+        <v>3034400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3398100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2514400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2628100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19205800</v>
+        <v>20363700</v>
       </c>
       <c r="E59" s="3">
-        <v>18843500</v>
+        <v>20455300</v>
       </c>
       <c r="F59" s="3">
-        <v>18966400</v>
+        <v>19573900</v>
       </c>
       <c r="G59" s="3">
-        <v>18686700</v>
+        <v>19204700</v>
       </c>
       <c r="H59" s="3">
-        <v>18147200</v>
+        <v>19329900</v>
       </c>
       <c r="I59" s="3">
+        <v>19044800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>18495000</v>
+      </c>
+      <c r="K59" s="3">
         <v>18275000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17244500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2078,37 +2391,49 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33374400</v>
+        <v>35893700</v>
       </c>
       <c r="E61" s="3">
-        <v>33941100</v>
+        <v>34903800</v>
       </c>
       <c r="F61" s="3">
-        <v>34513200</v>
+        <v>34014100</v>
       </c>
       <c r="G61" s="3">
-        <v>34305200</v>
+        <v>34591600</v>
       </c>
       <c r="H61" s="3">
-        <v>34428400</v>
+        <v>35174700</v>
       </c>
       <c r="I61" s="3">
+        <v>34962700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>35088200</v>
+      </c>
+      <c r="K61" s="3">
         <v>34193700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>34384900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2136,8 +2461,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2496,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2531,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,37 +2566,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76811500</v>
+        <v>84110800</v>
       </c>
       <c r="E66" s="3">
-        <v>77555400</v>
+        <v>81130200</v>
       </c>
       <c r="F66" s="3">
-        <v>78801200</v>
+        <v>78283700</v>
       </c>
       <c r="G66" s="3">
-        <v>78191700</v>
+        <v>79041800</v>
       </c>
       <c r="H66" s="3">
-        <v>77990500</v>
+        <v>80311500</v>
       </c>
       <c r="I66" s="3">
+        <v>79690300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>79485200</v>
+      </c>
+      <c r="K66" s="3">
         <v>77383600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>77218100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2620,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2651,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2686,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2721,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,37 +2756,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20865100</v>
+        <v>22330000</v>
       </c>
       <c r="E72" s="3">
-        <v>20536600</v>
+        <v>21943900</v>
       </c>
       <c r="F72" s="3">
-        <v>20056000</v>
+        <v>21265000</v>
       </c>
       <c r="G72" s="3">
-        <v>19560800</v>
+        <v>20930200</v>
       </c>
       <c r="H72" s="3">
-        <v>18884400</v>
+        <v>20440400</v>
       </c>
       <c r="I72" s="3">
+        <v>19935700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>19246400</v>
+      </c>
+      <c r="K72" s="3">
         <v>18427200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>17917900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2826,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2861,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,37 +2896,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24057300</v>
+        <v>25470200</v>
       </c>
       <c r="E76" s="3">
-        <v>23793100</v>
+        <v>25347900</v>
       </c>
       <c r="F76" s="3">
-        <v>23664300</v>
+        <v>24518300</v>
       </c>
       <c r="G76" s="3">
-        <v>23157300</v>
+        <v>24249100</v>
       </c>
       <c r="H76" s="3">
-        <v>22399700</v>
+        <v>24117900</v>
       </c>
       <c r="I76" s="3">
+        <v>23601100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>22829000</v>
+      </c>
+      <c r="K76" s="3">
         <v>22243300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>21616300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,71 +2966,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>709100</v>
+        <v>733700</v>
       </c>
       <c r="E81" s="3">
-        <v>503300</v>
+        <v>678900</v>
       </c>
       <c r="F81" s="3">
-        <v>802000</v>
+        <v>722700</v>
       </c>
       <c r="G81" s="3">
-        <v>676400</v>
+        <v>513000</v>
       </c>
       <c r="H81" s="3">
-        <v>795700</v>
+        <v>817400</v>
       </c>
       <c r="I81" s="3">
+        <v>689400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>811000</v>
+      </c>
+      <c r="K81" s="3">
         <v>497800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>665000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,37 +3060,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>628000</v>
+        <v>676200</v>
       </c>
       <c r="E83" s="3">
-        <v>684900</v>
+        <v>654400</v>
       </c>
       <c r="F83" s="3">
-        <v>613400</v>
+        <v>640100</v>
       </c>
       <c r="G83" s="3">
-        <v>599000</v>
+        <v>698100</v>
       </c>
       <c r="H83" s="3">
-        <v>585600</v>
+        <v>625100</v>
       </c>
       <c r="I83" s="3">
+        <v>610500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>596800</v>
+      </c>
+      <c r="K83" s="3">
         <v>583400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>562000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +3126,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +3161,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +3196,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +3231,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,37 +3266,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>862700</v>
+        <v>976900</v>
       </c>
       <c r="E89" s="3">
-        <v>1933600</v>
+        <v>1593500</v>
       </c>
       <c r="F89" s="3">
-        <v>1161900</v>
+        <v>879300</v>
       </c>
       <c r="G89" s="3">
-        <v>964600</v>
+        <v>1772000</v>
       </c>
       <c r="H89" s="3">
-        <v>788400</v>
+        <v>1193700</v>
       </c>
       <c r="I89" s="3">
+        <v>1172300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>803500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1250000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>994000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,37 +3320,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1976300</v>
+        <v>-122300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2255100</v>
+        <v>-193300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2105000</v>
+        <v>-146700</v>
       </c>
       <c r="G91" s="3">
-        <v>-129100</v>
+        <v>-155900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4835400</v>
+        <v>-197500</v>
       </c>
       <c r="I91" s="3">
+        <v>-222200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-148500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3386,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,37 +3421,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>31700</v>
+        <v>-3699400</v>
       </c>
       <c r="E94" s="3">
-        <v>-746300</v>
+        <v>-2636100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1334400</v>
+        <v>32300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1684800</v>
+        <v>-760600</v>
       </c>
       <c r="H94" s="3">
-        <v>114700</v>
+        <v>-1359900</v>
       </c>
       <c r="I94" s="3">
+        <v>-1717000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,37 +3475,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-443400</v>
+        <v>-347600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-306900</v>
+        <v>-451900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-338500</v>
+        <v>-312700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-267500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3541,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3576,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,91 +3611,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1597700</v>
+        <v>3516300</v>
       </c>
       <c r="E100" s="3">
-        <v>-324100</v>
+        <v>342500</v>
       </c>
       <c r="F100" s="3">
-        <v>565500</v>
+        <v>-1628300</v>
       </c>
       <c r="G100" s="3">
-        <v>421000</v>
+        <v>-330300</v>
       </c>
       <c r="H100" s="3">
-        <v>611100</v>
+        <v>571200</v>
       </c>
       <c r="I100" s="3">
+        <v>434300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>622800</v>
+      </c>
+      <c r="K100" s="3">
         <v>713600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-108100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9800</v>
+        <v>-66800</v>
       </c>
       <c r="E101" s="3">
-        <v>-79400</v>
+        <v>47700</v>
       </c>
       <c r="F101" s="3">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="G101" s="3">
-        <v>40100</v>
+        <v>-82800</v>
       </c>
       <c r="H101" s="3">
-        <v>40700</v>
+        <v>24000</v>
       </c>
       <c r="I101" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-11800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>141000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-693500</v>
+        <v>727100</v>
       </c>
       <c r="E102" s="3">
-        <v>783800</v>
+        <v>-652300</v>
       </c>
       <c r="F102" s="3">
-        <v>416100</v>
+        <v>-706800</v>
       </c>
       <c r="G102" s="3">
-        <v>-163700</v>
+        <v>798800</v>
       </c>
       <c r="H102" s="3">
-        <v>1459500</v>
+        <v>424100</v>
       </c>
       <c r="I102" s="3">
+        <v>-166800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1487500</v>
+      </c>
+      <c r="K102" s="3">
         <v>874100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-181900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1061400</v>
       </c>
     </row>

--- a/Financials/Quarterly/IX_QTR_FIN.xlsx
+++ b/Financials/Quarterly/IX_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8335B5F-00A9-4A5F-9F18-A302B6842647}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="IX" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>IX</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,174 +654,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4828600</v>
+        <v>5196800</v>
       </c>
       <c r="E8" s="3">
-        <v>5949200</v>
+        <v>5233100</v>
       </c>
       <c r="F8" s="3">
-        <v>5459400</v>
+        <v>4881100</v>
       </c>
       <c r="G8" s="3">
+        <v>5805900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4855300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5982100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5489600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6037700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>6120900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>6558500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>7162400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>6678100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>6250200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>5616300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2977400</v>
+        <v>3181900</v>
       </c>
       <c r="E9" s="3">
-        <v>3845600</v>
+        <v>3182000</v>
       </c>
       <c r="F9" s="3">
-        <v>3440500</v>
+        <v>2905300</v>
       </c>
       <c r="G9" s="3">
+        <v>3745900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2993900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3866900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3459500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4148400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>4173600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>4727200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>5316600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>4878500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>4517300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>3914700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1851200</v>
+        <v>2014900</v>
       </c>
       <c r="E10" s="3">
-        <v>2103600</v>
+        <v>2051100</v>
       </c>
       <c r="F10" s="3">
-        <v>2018900</v>
+        <v>1975800</v>
       </c>
       <c r="G10" s="3">
+        <v>2060000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1861400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2115200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2030100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1889300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>1947200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>1831300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>1845700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>1799600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>1732900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>1701600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,8 +922,20 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -940,78 +969,114 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>4700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>200</v>
       </c>
       <c r="G14" s="3">
+        <v>21700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>200</v>
+      </c>
+      <c r="K14" s="3">
         <v>22600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="L14" s="3">
         <v>14100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="M14" s="3">
         <v>3500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>9800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>38400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="P14" s="3">
         <v>30100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="Q14" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>11400</v>
+      </c>
+      <c r="N15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="P15" s="3">
         <v>11900</v>
       </c>
-      <c r="E15" s="3">
-        <v>10200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>11000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>13300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>11900</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="Q15" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,78 +1087,106 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4258300</v>
+        <v>4514800</v>
       </c>
       <c r="E17" s="3">
-        <v>5017200</v>
+        <v>4450900</v>
       </c>
       <c r="F17" s="3">
-        <v>4627800</v>
+        <v>4193500</v>
       </c>
       <c r="G17" s="3">
+        <v>5158200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4281900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5044900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4653400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5469000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>5359200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>5681200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>6330900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>5953800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>5529800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>4916200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>570300</v>
+        <v>681900</v>
       </c>
       <c r="E18" s="3">
-        <v>932000</v>
+        <v>782200</v>
       </c>
       <c r="F18" s="3">
-        <v>831600</v>
+        <v>687700</v>
       </c>
       <c r="G18" s="3">
+        <v>647700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>573500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>937200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>836200</v>
+      </c>
+      <c r="K18" s="3">
         <v>568700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>761700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>877300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>831500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>724300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>720400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>700100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,78 +1200,106 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100600</v>
+        <v>425500</v>
       </c>
       <c r="E20" s="3">
-        <v>62300</v>
+        <v>397400</v>
       </c>
       <c r="F20" s="3">
-        <v>171400</v>
+        <v>211000</v>
       </c>
       <c r="G20" s="3">
+        <v>266400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>101200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>62600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>172300</v>
+      </c>
+      <c r="K20" s="3">
         <v>109400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>213500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>180400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>394400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>81700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>298400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1347200</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>1648700</v>
+        <v>1868300</v>
       </c>
       <c r="F21" s="3">
-        <v>1643100</v>
+        <v>1572400</v>
       </c>
       <c r="G21" s="3">
+        <v>1619500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1354700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1657800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1652200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1376200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>1600300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>1668200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>1822700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>1389400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>1580800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>1445600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1212,78 +1333,114 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>671000</v>
+        <v>1107400</v>
       </c>
       <c r="E23" s="3">
-        <v>994300</v>
+        <v>1179600</v>
       </c>
       <c r="F23" s="3">
-        <v>1003000</v>
+        <v>898600</v>
       </c>
       <c r="G23" s="3">
+        <v>914100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>674700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>999800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1008600</v>
+      </c>
+      <c r="K23" s="3">
         <v>678100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>975200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>1057700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>1225900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>806000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>1018800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>894100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>173500</v>
+        <v>324400</v>
       </c>
       <c r="E24" s="3">
-        <v>302000</v>
+        <v>345500</v>
       </c>
       <c r="F24" s="3">
-        <v>279500</v>
+        <v>263200</v>
       </c>
       <c r="G24" s="3">
+        <v>114100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>303600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>281100</v>
+      </c>
+      <c r="K24" s="3">
         <v>135400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>142100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>348400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>403800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>300000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>336300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q24" s="3">
         <v>295100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1317,78 +1474,114 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>497500</v>
+        <v>783100</v>
       </c>
       <c r="E26" s="3">
-        <v>692300</v>
+        <v>834100</v>
       </c>
       <c r="F26" s="3">
-        <v>723500</v>
+        <v>635400</v>
       </c>
       <c r="G26" s="3">
+        <v>800000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>749100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>696200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>727500</v>
+      </c>
+      <c r="K26" s="3">
         <v>542700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>833100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>709300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>822100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>506000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>682500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>599000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>486200</v>
+        <v>774200</v>
       </c>
       <c r="E27" s="3">
-        <v>678900</v>
+        <v>817600</v>
       </c>
       <c r="F27" s="3">
-        <v>722700</v>
+        <v>629100</v>
       </c>
       <c r="G27" s="3">
+        <v>795700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>737700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>682700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>726700</v>
+      </c>
+      <c r="K27" s="3">
         <v>513000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>817400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>689400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>811000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>497800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>665000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1422,43 +1615,67 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>247500</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1492,8 +1709,20 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1527,78 +1756,114 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100600</v>
+        <v>-425500</v>
       </c>
       <c r="E32" s="3">
-        <v>-62300</v>
+        <v>-397400</v>
       </c>
       <c r="F32" s="3">
-        <v>-171400</v>
+        <v>-211000</v>
       </c>
       <c r="G32" s="3">
+        <v>-266400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-101200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-172300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-109400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-213500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-180400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>-394400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-81700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>-298400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>-194000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>733700</v>
+        <v>774200</v>
       </c>
       <c r="E33" s="3">
-        <v>678900</v>
+        <v>817600</v>
       </c>
       <c r="F33" s="3">
-        <v>722700</v>
+        <v>629100</v>
       </c>
       <c r="G33" s="3">
+        <v>795700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>737700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>682700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>726700</v>
+      </c>
+      <c r="K33" s="3">
         <v>513000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>817400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>689400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>811000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>497800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>665000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1632,83 +1897,119 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>733700</v>
+        <v>774200</v>
       </c>
       <c r="E35" s="3">
-        <v>678900</v>
+        <v>817600</v>
       </c>
       <c r="F35" s="3">
-        <v>722700</v>
+        <v>629100</v>
       </c>
       <c r="G35" s="3">
+        <v>795700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>737700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>682700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>726700</v>
+      </c>
+      <c r="K35" s="3">
         <v>513000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>817400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>689400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>811000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>497800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>665000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1722,8 +2023,12 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1737,43 +2042,59 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12070200</v>
+        <v>9277300</v>
       </c>
       <c r="E41" s="3">
-        <v>11343100</v>
+        <v>10084800</v>
       </c>
       <c r="F41" s="3">
-        <v>11995500</v>
+        <v>10388300</v>
       </c>
       <c r="G41" s="3">
+        <v>11667700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>12137000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>11405900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>12061800</v>
+      </c>
+      <c r="K41" s="3">
         <v>12702300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>11964900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>11518800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>11731700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>10051600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>9284500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>9275800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1807,78 +2128,114 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1848300</v>
+        <v>1995100</v>
       </c>
       <c r="E43" s="3">
-        <v>1985900</v>
+        <v>1858700</v>
       </c>
       <c r="F43" s="3">
-        <v>2243300</v>
+        <v>2120500</v>
       </c>
       <c r="G43" s="3">
+        <v>2023200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1858500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1996900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2255700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2170500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>2281800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>1973500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>1850500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>1988700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>1868400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="Q43" s="3">
         <v>1833400</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1311000</v>
+        <v>1199500</v>
       </c>
       <c r="E44" s="3">
-        <v>1187600</v>
+        <v>1148400</v>
       </c>
       <c r="F44" s="3">
-        <v>1111100</v>
+        <v>1138000</v>
       </c>
       <c r="G44" s="3">
+        <v>1051700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1318200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1117200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1003400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>1246700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>1174100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>1116500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>1045400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>1265400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>1328700</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1912,8 +2269,20 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,78 +2316,114 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75478000</v>
+        <v>74277800</v>
       </c>
       <c r="E47" s="3">
-        <v>73240900</v>
+        <v>71205800</v>
       </c>
       <c r="F47" s="3">
-        <v>69471500</v>
+        <v>69310600</v>
       </c>
       <c r="G47" s="3">
+        <v>77637100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>75895400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>73646000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>69855700</v>
+      </c>
+      <c r="K47" s="3">
         <v>69467000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>71014900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>70684000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>70420000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>69927900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>70281800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="Q47" s="3">
         <v>67221000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5408500</v>
+        <v>6573200</v>
       </c>
       <c r="E48" s="3">
-        <v>5093700</v>
+        <v>5968000</v>
       </c>
       <c r="F48" s="3">
-        <v>4982400</v>
+        <v>6323000</v>
       </c>
       <c r="G48" s="3">
+        <v>4999700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5438400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5121900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5009900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4951600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>4682600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>4655100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>4632500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>4521200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>4311900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>4267300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2052,8 +2457,20 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2087,8 +2504,20 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2122,8 +2551,20 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2157,8 +2598,20 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2192,43 +2645,67 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>109581000</v>
+        <v>116742500</v>
       </c>
       <c r="E54" s="3">
-        <v>106478000</v>
+        <v>113725700</v>
       </c>
       <c r="F54" s="3">
-        <v>102802000</v>
+        <v>112761000</v>
       </c>
       <c r="G54" s="3">
+        <v>110670000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>110187100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>107067000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>103370600</v>
+      </c>
+      <c r="K54" s="3">
         <v>103290900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>104429300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>103291400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>102314200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>99626900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>98834300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>95642500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2242,8 +2719,12 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2257,113 +2738,153 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2112500</v>
+        <v>2062500</v>
       </c>
       <c r="E57" s="3">
-        <v>2074400</v>
+        <v>2116900</v>
       </c>
       <c r="F57" s="3">
-        <v>2402900</v>
+        <v>2016600</v>
       </c>
       <c r="G57" s="3">
+        <v>2667700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2124200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2085900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2416200</v>
+      </c>
+      <c r="K57" s="3">
         <v>2371200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>1898700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>1915700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>1891500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>2233500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>1846800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>1846700</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5864900</v>
+        <v>3491800</v>
       </c>
       <c r="E58" s="3">
-        <v>2933200</v>
+        <v>2498100</v>
       </c>
       <c r="F58" s="3">
-        <v>2153100</v>
+        <v>3060700</v>
       </c>
       <c r="G58" s="3">
+        <v>2813800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5897300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2949400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2773100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>3241500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>3034400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>3398100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>2514400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>2628100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>1852200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20363700</v>
+        <v>23088100</v>
       </c>
       <c r="E59" s="3">
-        <v>20455300</v>
+        <v>22373000</v>
       </c>
       <c r="F59" s="3">
-        <v>19573900</v>
+        <v>21410100</v>
       </c>
       <c r="G59" s="3">
+        <v>20757800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>20476300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>20568500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>19682100</v>
+      </c>
+      <c r="K59" s="3">
         <v>19204700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>19329900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>19044800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>18495000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>18275000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>17244500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>16647500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2397,43 +2918,67 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35893700</v>
+        <v>37443300</v>
       </c>
       <c r="E61" s="3">
-        <v>34903800</v>
+        <v>37003600</v>
       </c>
       <c r="F61" s="3">
-        <v>34014100</v>
+        <v>37380600</v>
       </c>
       <c r="G61" s="3">
+        <v>38052800</v>
+      </c>
+      <c r="H61" s="3">
+        <v>36092200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>35096800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>34202200</v>
+      </c>
+      <c r="K61" s="3">
         <v>34591600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>35174700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>34962700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>35088200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>34193700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>34384900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>33751200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2467,8 +3012,20 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2502,8 +3059,20 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2537,8 +3106,20 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2572,43 +3153,67 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>84110800</v>
+        <v>89396000</v>
       </c>
       <c r="E66" s="3">
-        <v>81130200</v>
+        <v>86800400</v>
       </c>
       <c r="F66" s="3">
-        <v>78283700</v>
+        <v>86517500</v>
       </c>
       <c r="G66" s="3">
+        <v>84335600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>84576000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>81578900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>78716600</v>
+      </c>
+      <c r="K66" s="3">
         <v>79041800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>80311500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>79690300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>79485200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>77383600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>77218100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>74665300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2622,8 +3227,12 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2657,8 +3266,20 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2692,8 +3313,20 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2727,8 +3360,20 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2762,43 +3407,67 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22330000</v>
+        <v>24507400</v>
       </c>
       <c r="E72" s="3">
-        <v>21943900</v>
+        <v>24141000</v>
       </c>
       <c r="F72" s="3">
-        <v>21265000</v>
+        <v>23323400</v>
       </c>
       <c r="G72" s="3">
+        <v>23230300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>22453500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>22065300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>21382600</v>
+      </c>
+      <c r="K72" s="3">
         <v>20930200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>20440400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>19935700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>19246400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>18427200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>17917900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>17520500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2832,8 +3501,20 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2867,8 +3548,20 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2902,43 +3595,67 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25470200</v>
+        <v>27346400</v>
       </c>
       <c r="E76" s="3">
-        <v>25347900</v>
+        <v>26925200</v>
       </c>
       <c r="F76" s="3">
-        <v>24518300</v>
+        <v>26243500</v>
       </c>
       <c r="G76" s="3">
+        <v>26334400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>25611100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>25488100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>24653900</v>
+      </c>
+      <c r="K76" s="3">
         <v>24249100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>24117900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>23601100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>22829000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>22243300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>21616300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>20977200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2972,83 +3689,119 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>733700</v>
+        <v>774200</v>
       </c>
       <c r="E81" s="3">
-        <v>678900</v>
+        <v>817600</v>
       </c>
       <c r="F81" s="3">
-        <v>722700</v>
+        <v>629100</v>
       </c>
       <c r="G81" s="3">
+        <v>795700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>737700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>682700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>726700</v>
+      </c>
+      <c r="K81" s="3">
         <v>513000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>817400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>689400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>811000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>497800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>665000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>579900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3062,43 +3815,59 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>676200</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>654400</v>
+        <v>688700</v>
       </c>
       <c r="F83" s="3">
-        <v>640100</v>
+        <v>673700</v>
       </c>
       <c r="G83" s="3">
+        <v>705300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>680000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>658000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>643600</v>
+      </c>
+      <c r="K83" s="3">
         <v>698100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>625100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>610500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>596800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>583400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>562000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>551500</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3132,8 +3901,20 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3167,8 +3948,20 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3202,8 +3995,20 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3237,8 +4042,20 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3272,43 +4089,67 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>976900</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>1593500</v>
+        <v>3219800</v>
       </c>
       <c r="F89" s="3">
-        <v>879300</v>
+        <v>1623800</v>
       </c>
       <c r="G89" s="3">
+        <v>1873200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>982300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1602400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>884100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1772000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>1193700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>1172300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>803500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>1250000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>994000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>1888000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3322,43 +4163,59 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-122300</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-193300</v>
+        <v>-61900</v>
       </c>
       <c r="F91" s="3">
-        <v>-146700</v>
+        <v>-48200</v>
       </c>
       <c r="G91" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-194400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-147500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-155900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-197500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-222200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-148500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-2642900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="Q91" s="3">
         <v>-2170900</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3392,8 +4249,20 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3427,43 +4296,67 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-3699400</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>-2636100</v>
+        <v>-3353000</v>
       </c>
       <c r="F94" s="3">
-        <v>32300</v>
+        <v>-3041700</v>
       </c>
       <c r="G94" s="3">
+        <v>-1606100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-3719900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2650700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-760600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-1359900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-1717000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>116900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-1077700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-1208800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>-357200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3477,43 +4370,59 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-347600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-451900</v>
+        <v>-536000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>-349500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-454400</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-312700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-345000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-267500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3547,8 +4456,20 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3582,8 +4503,20 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3617,109 +4550,157 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>3516300</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>342500</v>
+        <v>-135400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1628300</v>
+        <v>196100</v>
       </c>
       <c r="G100" s="3">
+        <v>-728000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>3535800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>344400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1637300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-330300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>571200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>434300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>622800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>713600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>-108100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>-426900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-66800</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
-        <v>47700</v>
+        <v>-35000</v>
       </c>
       <c r="F101" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>48000</v>
+      </c>
+      <c r="J101" s="3">
         <v>10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="K101" s="3">
         <v>-82800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>24000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>42100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>41400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>-11800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>141000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="Q101" s="3">
         <v>-42500</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>727100</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>-652300</v>
+        <v>-303500</v>
       </c>
       <c r="F102" s="3">
-        <v>-706800</v>
+        <v>-1279400</v>
       </c>
       <c r="G102" s="3">
+        <v>-469200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>731100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-655900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-710700</v>
+      </c>
+      <c r="K102" s="3">
         <v>798800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>424100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-166800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>1487500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>874100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-181900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>1061400</v>
       </c>
     </row>
